--- a/data/cleaned/voting/TX-scorecard-2015.xlsx
+++ b/data/cleaned/voting/TX-scorecard-2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/working/enviro_papers/data/cleaned/voting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3909BF-952E-3649-99E9-D2956B59779C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025B49F-D229-9D41-A5E9-B29543809667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senate" sheetId="1" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2001,7 +2001,9 @@
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="13" width="8"/>
+    <col min="3" max="3" width="8"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="13" width="8"/>
     <col min="14" max="14" width="7.5" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
@@ -3626,6 +3628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="16" max="17" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11638,7 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
